--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrd_extracted_properties.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrd_extracted_properties.xlsx
@@ -1911,13 +1911,13 @@
         <v>0.001087744575946479</v>
       </c>
       <c r="CZ2">
-        <v>0.02059317362334045</v>
+        <v>0.0205931736247206</v>
       </c>
       <c r="DA2">
         <v>0.003099534228441673</v>
       </c>
       <c r="DB2">
-        <v>0.03812025783492561</v>
+        <v>0.03812025783567118</v>
       </c>
       <c r="DC2">
         <v>0.00573957134398325</v>
@@ -1929,7 +1929,7 @@
         <v>0.02269814300001743</v>
       </c>
       <c r="DF2">
-        <v>0.04491522891567505</v>
+        <v>0.04491522891440948</v>
       </c>
       <c r="DG2">
         <v>0.006739749616703892</v>
@@ -2461,19 +2461,19 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
         <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>-2939.786373</v>
@@ -2533,49 +2533,49 @@
         <v>505.5106451857053</v>
       </c>
       <c r="AB4">
-        <v>0.8792856859332948</v>
+        <v>0.879285685933295</v>
       </c>
       <c r="AC4">
-        <v>0.02503</v>
+        <v>0.02177</v>
       </c>
       <c r="AD4">
-        <v>-0.24973</v>
+        <v>-0.05802</v>
       </c>
       <c r="AE4">
         <v>-0.16989</v>
       </c>
       <c r="AF4">
-        <v>-0.05802</v>
+        <v>-0.24973</v>
       </c>
       <c r="AG4">
-        <v>0.02177</v>
+        <v>0.02503</v>
       </c>
       <c r="AH4">
         <v>-0.40802</v>
       </c>
       <c r="AI4">
-        <v>12.5514</v>
+        <v>14.6598</v>
       </c>
       <c r="AJ4">
-        <v>41.6143</v>
+        <v>28.669</v>
       </c>
       <c r="AK4">
         <v>25.798</v>
       </c>
       <c r="AL4">
-        <v>28.669</v>
+        <v>41.6143</v>
       </c>
       <c r="AM4">
-        <v>14.6598</v>
+        <v>12.5514</v>
       </c>
       <c r="AN4">
         <v>-155.5752</v>
       </c>
       <c r="AO4">
+        <v>1.34032</v>
+      </c>
+      <c r="AP4">
         <v>1.33557</v>
-      </c>
-      <c r="AP4">
-        <v>1.34032</v>
       </c>
       <c r="AQ4">
         <v>117.509</v>
@@ -2587,181 +2587,184 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>90.71539256198346</v>
+        <v>91.16089876033058</v>
       </c>
       <c r="AU4">
-        <v>92.22623966942149</v>
+        <v>96.69421487603306</v>
       </c>
       <c r="AV4">
         <v>92.49418904958677</v>
       </c>
       <c r="AW4">
-        <v>96.69421487603306</v>
+        <v>92.22623966942149</v>
       </c>
       <c r="AX4">
-        <v>91.16089876033058</v>
+        <v>90.71539256198346</v>
       </c>
       <c r="AY4">
         <v>80.21694214876032</v>
       </c>
       <c r="AZ4">
-        <v>73.6977471024873</v>
+        <v>77.64682901419455</v>
       </c>
       <c r="BA4">
-        <v>75.55996874593046</v>
+        <v>88.19182185180362</v>
       </c>
       <c r="BB4">
         <v>77.74938142987368</v>
       </c>
       <c r="BC4">
-        <v>88.19182185180362</v>
+        <v>75.55996874593046</v>
       </c>
       <c r="BD4">
-        <v>77.64682901419455</v>
+        <v>73.6977471024873</v>
       </c>
       <c r="BE4">
         <v>66.87556973564266</v>
       </c>
       <c r="BF4">
-        <v>57.63185339690108</v>
+        <v>64.70128128724673</v>
       </c>
       <c r="BG4">
-        <v>59.84523986889154</v>
+        <v>77.25994487485102</v>
       </c>
       <c r="BH4">
         <v>64.00756108462456</v>
       </c>
       <c r="BI4">
-        <v>77.25994487485102</v>
+        <v>59.84523986889154</v>
       </c>
       <c r="BJ4">
-        <v>64.70128128724673</v>
+        <v>57.63185339690108</v>
       </c>
       <c r="BK4">
         <v>55.01433998808105</v>
       </c>
       <c r="BL4">
-        <v>44.87222791651137</v>
+        <v>54.42950987700335</v>
       </c>
       <c r="BM4">
-        <v>47.05262299664555</v>
+        <v>64.29137159895639</v>
       </c>
       <c r="BN4">
         <v>52.84837402161759</v>
       </c>
       <c r="BO4">
-        <v>64.29137159895639</v>
+        <v>47.05262299664555</v>
       </c>
       <c r="BP4">
-        <v>54.42950987700335</v>
+        <v>44.87222791651137</v>
       </c>
       <c r="BQ4">
         <v>44.35508292955647</v>
       </c>
       <c r="BR4">
-        <v>34.71735149897586</v>
+        <v>45.70324622928434</v>
       </c>
       <c r="BS4">
-        <v>36.60930420209795</v>
+        <v>50.83871268077711</v>
       </c>
       <c r="BT4">
         <v>43.05792626156043</v>
       </c>
       <c r="BU4">
-        <v>50.83871268077711</v>
+        <v>36.60930420209795</v>
       </c>
       <c r="BV4">
-        <v>45.70324622928434</v>
+        <v>34.71735149897586</v>
       </c>
       <c r="BW4">
         <v>36.05572279808826</v>
       </c>
       <c r="BX4">
+        <v>8.888442534027535</v>
+      </c>
+      <c r="BY4">
+        <v>1.987600327348177</v>
+      </c>
+      <c r="BZ4">
+        <v>4.439929407806746</v>
+      </c>
+      <c r="CA4">
         <v>4.684268348652511</v>
       </c>
-      <c r="BY4">
+      <c r="CB4">
         <v>1.7</v>
       </c>
-      <c r="BZ4">
+      <c r="CC4">
         <v>6.836961476090551</v>
       </c>
-      <c r="CA4">
-        <v>8.888442534027535</v>
-      </c>
-      <c r="CB4">
-        <v>1.987600327348177</v>
-      </c>
-      <c r="CC4">
+      <c r="CD4">
+        <v>7.901688898464847</v>
+      </c>
+      <c r="CE4">
+        <v>1.97817583917918</v>
+      </c>
+      <c r="CF4">
         <v>4.439929407806746</v>
       </c>
-      <c r="CD4">
+      <c r="CG4">
         <v>4.684268348652511</v>
       </c>
-      <c r="CE4">
+      <c r="CH4">
         <v>1.7</v>
       </c>
-      <c r="CF4">
+      <c r="CI4">
         <v>6.771843757947445</v>
       </c>
-      <c r="CG4">
-        <v>7.901688898464847</v>
-      </c>
-      <c r="CH4">
-        <v>1.97817583917918</v>
-      </c>
-      <c r="CI4">
-        <v>4.439929407806746</v>
-      </c>
       <c r="CJ4">
+        <v>1.95</v>
+      </c>
+      <c r="CK4">
+        <v>4.407096549884062</v>
+      </c>
+      <c r="CL4">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="CM4">
         <v>1.678700108616284</v>
       </c>
-      <c r="CK4">
+      <c r="CN4">
         <v>6.802940540677979</v>
       </c>
-      <c r="CL4">
+      <c r="CO4">
         <v>4.250000000000001</v>
-      </c>
-      <c r="CM4">
-        <v>1.95</v>
-      </c>
-      <c r="CN4">
-        <v>4.407096549884062</v>
-      </c>
-      <c r="CO4">
-        <v>8.449999999999999</v>
       </c>
       <c r="CP4">
         <v>1.65</v>
       </c>
       <c r="CQ4">
-        <v>5.501136246267674</v>
+        <v>4.407096549884062</v>
       </c>
       <c r="CR4">
-        <v>1.668673114842224</v>
+        <v>1.65</v>
       </c>
       <c r="CS4">
-        <v>5.423329235810786</v>
+        <v>4.36033255612459</v>
       </c>
       <c r="CT4">
         <v>1.65</v>
       </c>
       <c r="CU4">
-        <v>4.407096549884062</v>
+        <v>5.501136246267674</v>
       </c>
       <c r="CV4">
-        <v>1.65</v>
+        <v>1.668673114842224</v>
       </c>
       <c r="CW4">
-        <v>4.36033255612459</v>
+        <v>5.423329235810786</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>5.102687195532556E-11</v>
+        <v>8.817375366897825E-11</v>
       </c>
       <c r="CZ4">
         <v>0</v>
       </c>
       <c r="DA4">
-        <v>2.324108532819377E-11</v>
+        <v>2.126168193554637E-12</v>
       </c>
       <c r="DB4">
         <v>0</v>
@@ -2773,16 +2776,16 @@
         <v>0</v>
       </c>
       <c r="DE4">
-        <v>2.126168193554637E-12</v>
+        <v>2.324108532819377E-11</v>
       </c>
       <c r="DF4">
         <v>0</v>
       </c>
       <c r="DG4">
-        <v>8.817375366897825E-11</v>
+        <v>5.102687195532556E-11</v>
       </c>
       <c r="DH4">
-        <v>8.235004800642301</v>
+        <v>8.235004800642304</v>
       </c>
       <c r="DI4">
         <v>1.999999999999291</v>
@@ -3189,7 +3192,7 @@
         <v>0.02880820887799566</v>
       </c>
       <c r="DB5">
-        <v>0.06386250201035282</v>
+        <v>0.06386250200990777</v>
       </c>
       <c r="DC5">
         <v>0.009615093913641038</v>
@@ -3380,7 +3383,7 @@
         <v>487.4587275388821</v>
       </c>
       <c r="AB6">
-        <v>0.9175649194676567</v>
+        <v>0.9175649194676565</v>
       </c>
       <c r="AC6">
         <v>0.02239</v>
@@ -3626,7 +3629,7 @@
         <v>0.02845040127216296</v>
       </c>
       <c r="DF6">
-        <v>0.02317051052219543</v>
+        <v>0.02317051052342207</v>
       </c>
       <c r="DG6">
         <v>0.003475712475962114</v>
@@ -3949,13 +3952,13 @@
         <v>36.09567997020669</v>
       </c>
       <c r="BX7">
-        <v>4.688884607934411</v>
+        <v>4.68888460793441</v>
       </c>
       <c r="BY7">
         <v>1.7</v>
       </c>
       <c r="BZ7">
-        <v>7.842561896189439</v>
+        <v>7.842561896189437</v>
       </c>
       <c r="CA7">
         <v>6.802687787347497</v>
@@ -3967,13 +3970,13 @@
         <v>6.055711185916541</v>
       </c>
       <c r="CD7">
-        <v>4.688884607934411</v>
+        <v>4.68888460793441</v>
       </c>
       <c r="CE7">
         <v>1.7</v>
       </c>
       <c r="CF7">
-        <v>6.733805511494629</v>
+        <v>6.733805511494627</v>
       </c>
       <c r="CG7">
         <v>6.314112507430491</v>
@@ -4033,7 +4036,7 @@
         <v>0.001286111748159554</v>
       </c>
       <c r="CZ7">
-        <v>0.009809317179031038</v>
+        <v>0.009809317176133618</v>
       </c>
       <c r="DA7">
         <v>0.001476590973745869</v>
@@ -4470,7 +4473,7 @@
         <v>0.002280651480778204</v>
       </c>
       <c r="DD8">
-        <v>0.1514751841136903</v>
+        <v>0.1514751841135027</v>
       </c>
       <c r="DE8">
         <v>0.0227742900682386</v>
@@ -4655,7 +4658,7 @@
         <v>504.0262049765095</v>
       </c>
       <c r="AB9">
-        <v>0.88665855977302</v>
+        <v>0.8866585597730202</v>
       </c>
       <c r="AC9">
         <v>0.02277</v>
@@ -4895,7 +4898,7 @@
         <v>0.003406597335447382</v>
       </c>
       <c r="DD9">
-        <v>0.17313397553186</v>
+        <v>0.1731339755316958</v>
       </c>
       <c r="DE9">
         <v>0.02603178251498885</v>
@@ -5505,7 +5508,7 @@
         <v>502.2320485103184</v>
       </c>
       <c r="AB11">
-        <v>0.8905343188978581</v>
+        <v>0.8905343188978579</v>
       </c>
       <c r="AC11">
         <v>0.02327</v>
@@ -5745,7 +5748,7 @@
         <v>0.002413762313380519</v>
       </c>
       <c r="DD11">
-        <v>0.1626901672321205</v>
+        <v>0.1626901672319458</v>
       </c>
       <c r="DE11">
         <v>0.02445633229762884</v>
@@ -5930,7 +5933,7 @@
         <v>509.1227173099002</v>
       </c>
       <c r="AB12">
-        <v>0.8782853731432959</v>
+        <v>0.8782853731432957</v>
       </c>
       <c r="AC12">
         <v>0.02419</v>
@@ -6098,7 +6101,7 @@
         <v>1.7</v>
       </c>
       <c r="CF12">
-        <v>6.213747672970003</v>
+        <v>6.213747672970004</v>
       </c>
       <c r="CG12">
         <v>6.271066488014005</v>
@@ -6152,7 +6155,7 @@
         <v>4.368352092036538</v>
       </c>
       <c r="CX12">
-        <v>0.01439137840899442</v>
+        <v>0.01439137841096933</v>
       </c>
       <c r="CY12">
         <v>0.002161351494596444</v>
@@ -6352,10 +6355,10 @@
         <v>345.4824404248026</v>
       </c>
       <c r="AA13">
-        <v>504.0768612402673</v>
+        <v>504.0768612402674</v>
       </c>
       <c r="AB13">
-        <v>0.8865896437941025</v>
+        <v>0.8865896437941029</v>
       </c>
       <c r="AC13">
         <v>0.0228</v>
@@ -6589,7 +6592,7 @@
         <v>0.002931785615866986</v>
       </c>
       <c r="DB13">
-        <v>0.02249967059631057</v>
+        <v>0.02249967059757377</v>
       </c>
       <c r="DC13">
         <v>0.003387556364205111</v>
@@ -6622,7 +6625,7 @@
         <v>3.0373</v>
       </c>
       <c r="DM13">
-        <v>0.1935555555555555</v>
+        <v>0.1935555555555556</v>
       </c>
       <c r="DN13" t="s">
         <v>266</v>
@@ -6777,7 +6780,7 @@
         <v>345.8524445293194</v>
       </c>
       <c r="AA14">
-        <v>504.3922774794584</v>
+        <v>504.3922774794583</v>
       </c>
       <c r="AB14">
         <v>0.8860105514854454</v>
@@ -7008,7 +7011,7 @@
         <v>0.004327038783980687</v>
       </c>
       <c r="CZ14">
-        <v>0.1737820396301909</v>
+        <v>0.1737820396303545</v>
       </c>
       <c r="DA14">
         <v>0.02612917387903913</v>
@@ -7439,7 +7442,7 @@
         <v>0.008243269275971965</v>
       </c>
       <c r="DB15">
-        <v>0.03625585063658662</v>
+        <v>0.03625585063580269</v>
       </c>
       <c r="DC15">
         <v>0.005455473813741799</v>
@@ -7789,7 +7792,7 @@
         <v>2.0974984810977</v>
       </c>
       <c r="CC16">
-        <v>5.641593436773089</v>
+        <v>5.641593436773087</v>
       </c>
       <c r="CD16">
         <v>4.679113733817573</v>
@@ -7807,7 +7810,7 @@
         <v>2.0974984810977</v>
       </c>
       <c r="CI16">
-        <v>5.641593436773089</v>
+        <v>5.641593436773087</v>
       </c>
       <c r="CJ16">
         <v>1.691019781802777</v>
@@ -7876,13 +7879,13 @@
         <v>0.01874841287413621</v>
       </c>
       <c r="DF16">
-        <v>0.09443367795326105</v>
+        <v>0.09443367795296008</v>
       </c>
       <c r="DG16">
         <v>0.0141059904275325</v>
       </c>
       <c r="DH16">
-        <v>8.237388289562825</v>
+        <v>8.237388289562828</v>
       </c>
       <c r="DI16">
         <v>1.995886986421356</v>
@@ -8055,7 +8058,7 @@
         <v>522.0202462238508</v>
       </c>
       <c r="AB17">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="AC17">
         <v>0.37935</v>
@@ -8283,7 +8286,7 @@
         <v>0.01424838643996654</v>
       </c>
       <c r="CZ17">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="DA17">
         <v>0.03014661611718433</v>
@@ -8726,7 +8729,7 @@
         <v>0.001482993692936764</v>
       </c>
       <c r="DF18">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="DG18">
         <v>0.0007171831019081697</v>
@@ -8905,7 +8908,7 @@
         <v>481.2836546552945</v>
       </c>
       <c r="AB19">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="AC19">
         <v>-0.00773</v>
@@ -9557,6 +9560,9 @@
       <c r="DA20">
         <v>2.217329923369348E-11</v>
       </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
       <c r="DC20">
         <v>4.60460449422118E-11</v>
       </c>
@@ -10171,7 +10177,7 @@
         <v>1050.322954953765</v>
       </c>
       <c r="AB22">
-        <v>0.7730539872740928</v>
+        <v>0.7730539872740929</v>
       </c>
       <c r="AC22">
         <v>0.36405</v>
@@ -10405,13 +10411,13 @@
         <v>0.00538057323168181</v>
       </c>
       <c r="DB22">
-        <v>0.009002157117879767</v>
+        <v>0.009002157114722556</v>
       </c>
       <c r="DC22">
         <v>0.001354424316332817</v>
       </c>
       <c r="DD22">
-        <v>0.008810155075217957</v>
+        <v>0.00881015507199194</v>
       </c>
       <c r="DE22">
         <v>0.001326338705009063</v>
@@ -10824,7 +10830,7 @@
         <v>0.003954538278011386</v>
       </c>
       <c r="CZ23">
-        <v>0.03453921437079063</v>
+        <v>0.0345392143716135</v>
       </c>
       <c r="DA23">
         <v>0.005194677434281732</v>
@@ -10836,7 +10842,7 @@
         <v>0.00111515879220912</v>
       </c>
       <c r="DD23">
-        <v>0.008709954742822452</v>
+        <v>0.008709954746085581</v>
       </c>
       <c r="DE23">
         <v>0.001311253988648525</v>
@@ -11021,7 +11027,7 @@
         <v>1050.765022949865</v>
       </c>
       <c r="AB24">
-        <v>0.7711950199863302</v>
+        <v>0.7711950199863301</v>
       </c>
       <c r="AC24">
         <v>0.36613</v>
@@ -11267,7 +11273,7 @@
         <v>0.001142919166009268</v>
       </c>
       <c r="DF24">
-        <v>0.001495505163028768</v>
+        <v>0.001495505182033523</v>
       </c>
       <c r="DG24">
         <v>0.0002243922807181021</v>
@@ -12105,7 +12111,7 @@
         <v>0.01028629406723694</v>
       </c>
       <c r="DB26">
-        <v>0.0531483321012614</v>
+        <v>0.05314833210072664</v>
       </c>
       <c r="DC26">
         <v>0.007989715952081115</v>
@@ -12117,7 +12123,7 @@
         <v>0.001799378685958199</v>
       </c>
       <c r="DF26">
-        <v>0.07165452656525993</v>
+        <v>0.07165452656486328</v>
       </c>
       <c r="DG26">
         <v>0.01074754827591522</v>
@@ -12296,7 +12302,7 @@
         <v>1057.2508021561</v>
       </c>
       <c r="AB27">
-        <v>0.7680373521151318</v>
+        <v>0.7680373521151316</v>
       </c>
       <c r="AC27">
         <v>0.36908</v>
@@ -12721,7 +12727,7 @@
         <v>1057.532098030981</v>
       </c>
       <c r="AB28">
-        <v>0.7680090410512637</v>
+        <v>0.7680090410512636</v>
       </c>
       <c r="AC28">
         <v>0.37048</v>
@@ -12955,7 +12961,7 @@
         <v>0.009444903079002948</v>
       </c>
       <c r="DB28">
-        <v>0.05023990013016496</v>
+        <v>0.05023990012959925</v>
       </c>
       <c r="DC28">
         <v>0.007551460571459246</v>
@@ -12988,7 +12994,7 @@
         <v>21.34361</v>
       </c>
       <c r="DM28">
-        <v>1.357805555555555</v>
+        <v>1.357805555555556</v>
       </c>
       <c r="DN28" t="s">
         <v>266</v>
@@ -13146,7 +13152,7 @@
         <v>1057.296124173699</v>
       </c>
       <c r="AB29">
-        <v>0.7685179782410811</v>
+        <v>0.768517978241081</v>
       </c>
       <c r="AC29">
         <v>0.37056</v>
@@ -13380,7 +13386,7 @@
         <v>0.009195159700066024</v>
       </c>
       <c r="DB29">
-        <v>0.04863293430075715</v>
+        <v>0.04863293430134157</v>
       </c>
       <c r="DC29">
         <v>0.007309941233711049</v>
@@ -13413,7 +13419,7 @@
         <v>21.66419</v>
       </c>
       <c r="DM29">
-        <v>1.377916666666666</v>
+        <v>1.377916666666667</v>
       </c>
       <c r="DN29" t="s">
         <v>266</v>
@@ -13571,7 +13577,7 @@
         <v>493.7604974470327</v>
       </c>
       <c r="AB30">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="AC30">
         <v>0.20832</v>
@@ -13811,7 +13817,7 @@
         <v>7.697872199508193E-05</v>
       </c>
       <c r="DD30">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="DE30">
         <v>2.843578173895098E-05</v>
@@ -14263,7 +14269,7 @@
         <v>7.74592</v>
       </c>
       <c r="DM31">
-        <v>0.4923333333333334</v>
+        <v>0.4923333333333333</v>
       </c>
       <c r="DN31" t="s">
         <v>266</v>
@@ -14421,7 +14427,7 @@
         <v>706.9059676959608</v>
       </c>
       <c r="AB32">
-        <v>0.8425154336963186</v>
+        <v>0.8425154336963189</v>
       </c>
       <c r="AC32">
         <v>0.3868</v>
@@ -14586,7 +14592,7 @@
         <v>7.617749079320117</v>
       </c>
       <c r="CE32">
-        <v>1.794702526718079</v>
+        <v>1.794702526718078</v>
       </c>
       <c r="CF32">
         <v>5.610655804343359</v>
@@ -14649,7 +14655,7 @@
         <v>0.00221574175038469</v>
       </c>
       <c r="CZ32">
-        <v>0.008473500721121154</v>
+        <v>0.008473500724475343</v>
       </c>
       <c r="DA32">
         <v>0.001275474509912727</v>
@@ -14999,7 +15005,7 @@
         <v>6.709691366364506</v>
       </c>
       <c r="CA33">
-        <v>4.705449134946884</v>
+        <v>4.70544913494688</v>
       </c>
       <c r="CB33">
         <v>1.994585144274845</v>
@@ -15017,7 +15023,7 @@
         <v>6.654914711635569</v>
       </c>
       <c r="CG33">
-        <v>4.705449134946884</v>
+        <v>4.70544913494688</v>
       </c>
       <c r="CH33">
         <v>1.994585144274845</v>
@@ -15074,7 +15080,7 @@
         <v>0.02141352081354141</v>
       </c>
       <c r="CZ33">
-        <v>0.1074324711352352</v>
+        <v>0.1074324711349706</v>
       </c>
       <c r="DA33">
         <v>0.01617398662293377</v>
@@ -15086,7 +15092,7 @@
         <v>0.0008161329312630828</v>
       </c>
       <c r="DD33">
-        <v>0.02307079482304079</v>
+        <v>0.02307079482180886</v>
       </c>
       <c r="DE33">
         <v>0.003469077570082495</v>
@@ -15110,7 +15116,7 @@
         <v>260</v>
       </c>
       <c r="DL33">
-        <v>8.522110000000001</v>
+        <v>8.52211</v>
       </c>
       <c r="DM33">
         <v>0.5413333333333333</v>
@@ -15538,7 +15544,7 @@
         <v>9.42564</v>
       </c>
       <c r="DM34">
-        <v>0.6431388888888888</v>
+        <v>0.6431388888888889</v>
       </c>
       <c r="DN34" t="s">
         <v>266</v>
@@ -15696,7 +15702,7 @@
         <v>743.02127314224</v>
       </c>
       <c r="AB35">
-        <v>0.8274544544160525</v>
+        <v>0.8274544544160526</v>
       </c>
       <c r="AC35">
         <v>0.03616</v>
@@ -15930,7 +15936,7 @@
         <v>0.005767447489527139</v>
       </c>
       <c r="DB35">
-        <v>0.12996601604441</v>
+        <v>0.1299660160441914</v>
       </c>
       <c r="DC35">
         <v>0.01956847067526471</v>
@@ -15960,10 +15966,10 @@
         <v>262</v>
       </c>
       <c r="DL35">
-        <v>9.848159999999998</v>
+        <v>9.84816</v>
       </c>
       <c r="DM35">
-        <v>0.6661944444444445</v>
+        <v>0.6661944444444444</v>
       </c>
       <c r="DN35" t="s">
         <v>266</v>
@@ -16121,7 +16127,7 @@
         <v>576.0198727464538</v>
       </c>
       <c r="AB36">
-        <v>0.8650231530029818</v>
+        <v>0.8650231530029816</v>
       </c>
       <c r="AC36">
         <v>0.17614</v>
@@ -16546,7 +16552,7 @@
         <v>576.026799095023</v>
       </c>
       <c r="AB37">
-        <v>0.8656787459279335</v>
+        <v>0.8656787459279333</v>
       </c>
       <c r="AC37">
         <v>0.18089</v>
@@ -17205,7 +17211,7 @@
         <v>5.359846344733438E-06</v>
       </c>
       <c r="DB38">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="DC38">
         <v>2.630446195564655E-05</v>
